--- a/02-Projeto/01-ResolveAi/02-GQA/03-Indicadores.xlsx
+++ b/02-Projeto/01-ResolveAi/02-GQA/03-Indicadores.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="IACI" sheetId="1" r:id="rId1"/>
-    <sheet name="TPI" sheetId="2" r:id="rId2"/>
+    <sheet name="IACI-DESCRIÇÃO" sheetId="3" r:id="rId2"/>
+    <sheet name="TPI" sheetId="2" r:id="rId3"/>
+    <sheet name="TPI-DESCRIÇÃO" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Legenda</t>
   </si>
@@ -41,9 +43,6 @@
     <t>2017/2</t>
   </si>
   <si>
-    <t>QIE</t>
-  </si>
-  <si>
     <t>QICA</t>
   </si>
   <si>
@@ -66,13 +65,284 @@
   </si>
   <si>
     <t>TPI</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Coleta</t>
+  </si>
+  <si>
+    <t>Análise</t>
+  </si>
+  <si>
+    <t>IACI- Índice de Atraso na Correção de Inconformidades</t>
+  </si>
+  <si>
+    <t>Verificar a taxa de atraso na resolução de inconformidades encontradas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Após a execução da auditoria de cada processo coletar a Quantidade Total de Inconformidades Encontrada (QTIE) e a Quantidade de Inconformidades Corrigidas com Atraso (QICA). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Analista da Qualidade.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No fim de cada semestre serão somadas todas as QICAs dividida pela soma das QTIEs multiplicada por 100.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IACI = QICAs/QTIEs*100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baixo:  IACI &lt;= 10%
+Médio: IACI &lt;= 40%
+Alto:     IACI &gt;  40%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A meta é garantir o indicador BAIXO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TPI- Taxa de Processos com Inconformidades</t>
+  </si>
+  <si>
+    <t>Verificar a taxa de processos nos quais foram encontradas inconformidades em suas respectivas auditorias.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No fim de cada auditoria realizada. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Analista da Qualidade.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Após a execução da auditoria de cada processo coletar a Quantidade Total de Inconformidades Encontrada (QTIE). No fim de cada ano será considerada a Quantidade de Auditoria de Processos Realizada (QAPR) e a Quantidade de Processos com Inconformidades (QPI). Paro o cálculo basta dividir a QPI pela QAPR multiplicada por 100.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TPI = QPI / QAPR *100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baixo:  TPI &lt;= 40%
+Médio: TPI &lt;= 80%
+Alto:     TPI  &gt;  80%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A meta é garantir o indicador BAIXO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>QTIE</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>QPI</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>QAPR</t>
+  </si>
+  <si>
+    <t>Quantidade de Processos com Inconformidades</t>
+  </si>
+  <si>
+    <t>Quantidade de Auditoria de Processos Realizadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -83,33 +353,84 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -132,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,11 +513,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,14 +552,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +567,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,14 +940,14 @@
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -599,16 +960,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -628,15 +989,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
@@ -647,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>2</v>
@@ -655,7 +1016,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -677,98 +1038,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="228.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43063</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>43063</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="4">
+      <c r="D5" s="13"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="243.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
